--- a/ddcc/StructureDefinition-HCertDCC.xlsx
+++ b/ddcc/StructureDefinition-HCertDCC.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T11:00:36+02:00</t>
+    <t>2024-12-18T16:46:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -447,9 +447,9 @@
     <t>Vaccine product (e.g., 'EU/1/20/1528 (Comirnaty)'; see element details)</t>
   </si>
   <si>
-    <t>Preferred Code Systems (in the order of preference):
-- Union Register of medicinal products for vaccines with EU-wide authorisation (authorisation numbers) - for example, `EU/1/20/1528` (Comirnaty)
-- A global vaccine register such as one that could be established by the World Health Organisation
+    <t>Preferred Code Systems (in the order of preference):
+- Union Register of medicinal products for vaccines with EU-wide authorisation (authorisation numbers) - for example, `EU/1/20/1528` (Comirnaty)
+- A global vaccine register such as one that could be established by the World Health Organisation
 - Name of the vaccine medicinal product in other cases. If the name includes whitespaces, these should be replaced by a hyphen (-). For example, `Sputnik-V` (standing for Sputnik V).</t>
   </si>
   <si>
@@ -465,10 +465,10 @@
     <t>Vaccine marketing authorisation holder or manufacturer (e.g., 'ORG-100030215' (Biontech Manufacturing GmbH))</t>
   </si>
   <si>
-    <t>Preferred Code System:
-- Organisation code from EMA (SPOR system for ISO IDMP)
-- A global vaccine marketing authorisation holder or manufacturer register, such as one that could be established by the World Health Organisation
-- Name of the organisation in other cases.
+    <t>Preferred Code System:
+- Organisation code from EMA (SPOR system for ISO IDMP)
+- A global vaccine marketing authorisation holder or manufacturer register, such as one that could be established by the World Health Organisation
+- Name of the organisation in other cases.
 If the name includes whitespaces, these should be replaced by a hyphen (-).If marketing authorisation holder is not available, this will be the manufacturer.</t>
   </si>
   <si>
@@ -536,7 +536,7 @@
     <t>HCertDCC.1.t.tg</t>
   </si>
   <si>
-    <t>The selected codes shall refer to COVID-19 or, if more detailed information on the genetic variant of SARS-CoV-2 is needed, to these variants if such detailed information is needed due to epidemiological reasons.
+    <t>The selected codes shall refer to COVID-19 or, if more detailed information on the genetic variant of SARS-CoV-2 is needed, to these variants if such detailed information is needed due to epidemiological reasons.
 Example of a code that should be used is the SNOMED CT code `840539006` (COVID-19).</t>
   </si>
   <si>
@@ -549,7 +549,7 @@
     <t>Type of test (LOINC code; see element details)</t>
   </si>
   <si>
-    <t>The codes in this value set shall refer to the method of the test and shall be selected at least to separate the NAAT tests from RAT tests as expressed in Regulation (EU) 2021/953.
+    <t>The codes in this value set shall refer to the method of the test and shall be selected at least to separate the NAAT tests from RAT tests as expressed in Regulation (EU) 2021/953.
 An example of a code that should be used from the preferred code system is LP217198-3 (Rapid immunoassay).</t>
   </si>
   <si>
@@ -587,7 +587,7 @@
     <t>Result of the test (preferred: SNOMED CT GPS code)</t>
   </si>
   <si>
-    <t>The codes selected shall allow distinguishing between positive and negative test results (detected or not detected). Additional values (like undetermined) may be added if the use cases do require this.
+    <t>The codes selected shall allow distinguishing between positive and negative test results (detected or not detected). Additional values (like undetermined) may be added if the use cases do require this.
 Examples of codes that should be used from the preferred code system are `260415000` (Not detected) and `260373001` (Detected).</t>
   </si>
   <si>
